--- a/_data/ETHUSDT_1h.xlsx
+++ b/_data/ETHUSDT_1h.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1335"/>
+  <dimension ref="A1:F1507"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27101,6 +27101,3446 @@
         <v>4312.8563</v>
       </c>
     </row>
+    <row r="1336" spans="1:6">
+      <c r="A1336" s="2">
+        <v>45534.45833333334</v>
+      </c>
+      <c r="B1336">
+        <v>2517.48</v>
+      </c>
+      <c r="C1336">
+        <v>2520.29</v>
+      </c>
+      <c r="D1336">
+        <v>2507.31</v>
+      </c>
+      <c r="E1336">
+        <v>2512.44</v>
+      </c>
+      <c r="F1336">
+        <v>6372.9063</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:6">
+      <c r="A1337" s="2">
+        <v>45534.5</v>
+      </c>
+      <c r="B1337">
+        <v>2512.43</v>
+      </c>
+      <c r="C1337">
+        <v>2552.17</v>
+      </c>
+      <c r="D1337">
+        <v>2510.25</v>
+      </c>
+      <c r="E1337">
+        <v>2524.2</v>
+      </c>
+      <c r="F1337">
+        <v>14800.0137</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:6">
+      <c r="A1338" s="2">
+        <v>45534.54166666666</v>
+      </c>
+      <c r="B1338">
+        <v>2524.19</v>
+      </c>
+      <c r="C1338">
+        <v>2530.8</v>
+      </c>
+      <c r="D1338">
+        <v>2493.53</v>
+      </c>
+      <c r="E1338">
+        <v>2524.81</v>
+      </c>
+      <c r="F1338">
+        <v>17113.6649</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:6">
+      <c r="A1339" s="2">
+        <v>45534.58333333334</v>
+      </c>
+      <c r="B1339">
+        <v>2524.81</v>
+      </c>
+      <c r="C1339">
+        <v>2533.24</v>
+      </c>
+      <c r="D1339">
+        <v>2462.04</v>
+      </c>
+      <c r="E1339">
+        <v>2462.72</v>
+      </c>
+      <c r="F1339">
+        <v>25378.9005</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:6">
+      <c r="A1340" s="2">
+        <v>45534.625</v>
+      </c>
+      <c r="B1340">
+        <v>2462.72</v>
+      </c>
+      <c r="C1340">
+        <v>2472.25</v>
+      </c>
+      <c r="D1340">
+        <v>2434.96</v>
+      </c>
+      <c r="E1340">
+        <v>2448.75</v>
+      </c>
+      <c r="F1340">
+        <v>46691.047</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:6">
+      <c r="A1341" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="B1341">
+        <v>2448.76</v>
+      </c>
+      <c r="C1341">
+        <v>2464.6</v>
+      </c>
+      <c r="D1341">
+        <v>2431.14</v>
+      </c>
+      <c r="E1341">
+        <v>2462.49</v>
+      </c>
+      <c r="F1341">
+        <v>34957.295</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:6">
+      <c r="A1342" s="2">
+        <v>45534.70833333334</v>
+      </c>
+      <c r="B1342">
+        <v>2462.48</v>
+      </c>
+      <c r="C1342">
+        <v>2476.75</v>
+      </c>
+      <c r="D1342">
+        <v>2454.01</v>
+      </c>
+      <c r="E1342">
+        <v>2466.41</v>
+      </c>
+      <c r="F1342">
+        <v>9598.799000000001</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:6">
+      <c r="A1343" s="2">
+        <v>45534.75</v>
+      </c>
+      <c r="B1343">
+        <v>2466.42</v>
+      </c>
+      <c r="C1343">
+        <v>2542.19</v>
+      </c>
+      <c r="D1343">
+        <v>2465.21</v>
+      </c>
+      <c r="E1343">
+        <v>2535.79</v>
+      </c>
+      <c r="F1343">
+        <v>51106.3999</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:6">
+      <c r="A1344" s="2">
+        <v>45534.79166666666</v>
+      </c>
+      <c r="B1344">
+        <v>2535.79</v>
+      </c>
+      <c r="C1344">
+        <v>2535.79</v>
+      </c>
+      <c r="D1344">
+        <v>2497.27</v>
+      </c>
+      <c r="E1344">
+        <v>2506.94</v>
+      </c>
+      <c r="F1344">
+        <v>35038.6212</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:6">
+      <c r="A1345" s="2">
+        <v>45534.83333333334</v>
+      </c>
+      <c r="B1345">
+        <v>2506.94</v>
+      </c>
+      <c r="C1345">
+        <v>2519</v>
+      </c>
+      <c r="D1345">
+        <v>2506.35</v>
+      </c>
+      <c r="E1345">
+        <v>2518.79</v>
+      </c>
+      <c r="F1345">
+        <v>4740.5801</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:6">
+      <c r="A1346" s="2">
+        <v>45534.875</v>
+      </c>
+      <c r="B1346">
+        <v>2518.79</v>
+      </c>
+      <c r="C1346">
+        <v>2522.1</v>
+      </c>
+      <c r="D1346">
+        <v>2513.79</v>
+      </c>
+      <c r="E1346">
+        <v>2518.13</v>
+      </c>
+      <c r="F1346">
+        <v>3446.0057</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:6">
+      <c r="A1347" s="2">
+        <v>45534.91666666666</v>
+      </c>
+      <c r="B1347">
+        <v>2518.13</v>
+      </c>
+      <c r="C1347">
+        <v>2528.81</v>
+      </c>
+      <c r="D1347">
+        <v>2517.2</v>
+      </c>
+      <c r="E1347">
+        <v>2526.12</v>
+      </c>
+      <c r="F1347">
+        <v>6801.3394</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:6">
+      <c r="A1348" s="2">
+        <v>45534.95833333334</v>
+      </c>
+      <c r="B1348">
+        <v>2526.12</v>
+      </c>
+      <c r="C1348">
+        <v>2530.66</v>
+      </c>
+      <c r="D1348">
+        <v>2524.11</v>
+      </c>
+      <c r="E1348">
+        <v>2526</v>
+      </c>
+      <c r="F1348">
+        <v>4280.7269</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:6">
+      <c r="A1349" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1349">
+        <v>2525.99</v>
+      </c>
+      <c r="C1349">
+        <v>2533.95</v>
+      </c>
+      <c r="D1349">
+        <v>2522.61</v>
+      </c>
+      <c r="E1349">
+        <v>2524.26</v>
+      </c>
+      <c r="F1349">
+        <v>5156.5895</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:6">
+      <c r="A1350" s="2">
+        <v>45535.04166666666</v>
+      </c>
+      <c r="B1350">
+        <v>2524.25</v>
+      </c>
+      <c r="C1350">
+        <v>2530.41</v>
+      </c>
+      <c r="D1350">
+        <v>2519.3</v>
+      </c>
+      <c r="E1350">
+        <v>2525.7</v>
+      </c>
+      <c r="F1350">
+        <v>3717.585</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:6">
+      <c r="A1351" s="2">
+        <v>45535.08333333334</v>
+      </c>
+      <c r="B1351">
+        <v>2525.71</v>
+      </c>
+      <c r="C1351">
+        <v>2527.43</v>
+      </c>
+      <c r="D1351">
+        <v>2518.86</v>
+      </c>
+      <c r="E1351">
+        <v>2522.6</v>
+      </c>
+      <c r="F1351">
+        <v>2818.1732</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:6">
+      <c r="A1352" s="2">
+        <v>45535.125</v>
+      </c>
+      <c r="B1352">
+        <v>2522.64</v>
+      </c>
+      <c r="C1352">
+        <v>2527.27</v>
+      </c>
+      <c r="D1352">
+        <v>2521.41</v>
+      </c>
+      <c r="E1352">
+        <v>2523.52</v>
+      </c>
+      <c r="F1352">
+        <v>2474.592</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:6">
+      <c r="A1353" s="2">
+        <v>45535.16666666666</v>
+      </c>
+      <c r="B1353">
+        <v>2523.52</v>
+      </c>
+      <c r="C1353">
+        <v>2529.86</v>
+      </c>
+      <c r="D1353">
+        <v>2523.01</v>
+      </c>
+      <c r="E1353">
+        <v>2529.41</v>
+      </c>
+      <c r="F1353">
+        <v>3111.357</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:6">
+      <c r="A1354" s="2">
+        <v>45535.20833333334</v>
+      </c>
+      <c r="B1354">
+        <v>2529.4</v>
+      </c>
+      <c r="C1354">
+        <v>2529.49</v>
+      </c>
+      <c r="D1354">
+        <v>2522.25</v>
+      </c>
+      <c r="E1354">
+        <v>2523.2</v>
+      </c>
+      <c r="F1354">
+        <v>3618.6544</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:6">
+      <c r="A1355" s="2">
+        <v>45535.25</v>
+      </c>
+      <c r="B1355">
+        <v>2523.2</v>
+      </c>
+      <c r="C1355">
+        <v>2528.19</v>
+      </c>
+      <c r="D1355">
+        <v>2520.99</v>
+      </c>
+      <c r="E1355">
+        <v>2522.7</v>
+      </c>
+      <c r="F1355">
+        <v>4780.6425</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:6">
+      <c r="A1356" s="2">
+        <v>45535.29166666666</v>
+      </c>
+      <c r="B1356">
+        <v>2522.71</v>
+      </c>
+      <c r="C1356">
+        <v>2523.72</v>
+      </c>
+      <c r="D1356">
+        <v>2518.17</v>
+      </c>
+      <c r="E1356">
+        <v>2521.01</v>
+      </c>
+      <c r="F1356">
+        <v>3445.5248</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:6">
+      <c r="A1357" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="B1357">
+        <v>2521.01</v>
+      </c>
+      <c r="C1357">
+        <v>2523.8</v>
+      </c>
+      <c r="D1357">
+        <v>2512.8</v>
+      </c>
+      <c r="E1357">
+        <v>2513.23</v>
+      </c>
+      <c r="F1357">
+        <v>3672.1967</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:6">
+      <c r="A1358" s="2">
+        <v>45535.375</v>
+      </c>
+      <c r="B1358">
+        <v>2513.23</v>
+      </c>
+      <c r="C1358">
+        <v>2519.5</v>
+      </c>
+      <c r="D1358">
+        <v>2511.47</v>
+      </c>
+      <c r="E1358">
+        <v>2514</v>
+      </c>
+      <c r="F1358">
+        <v>4350.6461</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:6">
+      <c r="A1359" s="2">
+        <v>45535.41666666666</v>
+      </c>
+      <c r="B1359">
+        <v>2514</v>
+      </c>
+      <c r="C1359">
+        <v>2528.5</v>
+      </c>
+      <c r="D1359">
+        <v>2513.5</v>
+      </c>
+      <c r="E1359">
+        <v>2525.7</v>
+      </c>
+      <c r="F1359">
+        <v>3369.4054</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:6">
+      <c r="A1360" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="B1360">
+        <v>2525.69</v>
+      </c>
+      <c r="C1360">
+        <v>2529.81</v>
+      </c>
+      <c r="D1360">
+        <v>2523.72</v>
+      </c>
+      <c r="E1360">
+        <v>2525.5</v>
+      </c>
+      <c r="F1360">
+        <v>3381.4244</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:6">
+      <c r="A1361" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="B1361">
+        <v>2525.49</v>
+      </c>
+      <c r="C1361">
+        <v>2527.19</v>
+      </c>
+      <c r="D1361">
+        <v>2522.05</v>
+      </c>
+      <c r="E1361">
+        <v>2523.74</v>
+      </c>
+      <c r="F1361">
+        <v>3160.1724</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:6">
+      <c r="A1362" s="2">
+        <v>45535.54166666666</v>
+      </c>
+      <c r="B1362">
+        <v>2523.75</v>
+      </c>
+      <c r="C1362">
+        <v>2527.8</v>
+      </c>
+      <c r="D1362">
+        <v>2515.01</v>
+      </c>
+      <c r="E1362">
+        <v>2515.86</v>
+      </c>
+      <c r="F1362">
+        <v>3177.7127</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:6">
+      <c r="A1363" s="2">
+        <v>45535.58333333334</v>
+      </c>
+      <c r="B1363">
+        <v>2515.87</v>
+      </c>
+      <c r="C1363">
+        <v>2526.3</v>
+      </c>
+      <c r="D1363">
+        <v>2513.8</v>
+      </c>
+      <c r="E1363">
+        <v>2522.38</v>
+      </c>
+      <c r="F1363">
+        <v>4633.6168</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:6">
+      <c r="A1364" s="2">
+        <v>45535.625</v>
+      </c>
+      <c r="B1364">
+        <v>2522.39</v>
+      </c>
+      <c r="C1364">
+        <v>2523.5</v>
+      </c>
+      <c r="D1364">
+        <v>2516.6</v>
+      </c>
+      <c r="E1364">
+        <v>2519.19</v>
+      </c>
+      <c r="F1364">
+        <v>4396.6755</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:6">
+      <c r="A1365" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="B1365">
+        <v>2519.18</v>
+      </c>
+      <c r="C1365">
+        <v>2519.8</v>
+      </c>
+      <c r="D1365">
+        <v>2503.75</v>
+      </c>
+      <c r="E1365">
+        <v>2508.46</v>
+      </c>
+      <c r="F1365">
+        <v>4605.9756</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:6">
+      <c r="A1366" s="2">
+        <v>45535.70833333334</v>
+      </c>
+      <c r="B1366">
+        <v>2508.45</v>
+      </c>
+      <c r="C1366">
+        <v>2511.2</v>
+      </c>
+      <c r="D1366">
+        <v>2491.92</v>
+      </c>
+      <c r="E1366">
+        <v>2503.41</v>
+      </c>
+      <c r="F1366">
+        <v>7232.0185</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:6">
+      <c r="A1367" s="2">
+        <v>45535.75</v>
+      </c>
+      <c r="B1367">
+        <v>2503.42</v>
+      </c>
+      <c r="C1367">
+        <v>2509.82</v>
+      </c>
+      <c r="D1367">
+        <v>2494.8</v>
+      </c>
+      <c r="E1367">
+        <v>2496.21</v>
+      </c>
+      <c r="F1367">
+        <v>5798.6556</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:6">
+      <c r="A1368" s="2">
+        <v>45535.79166666666</v>
+      </c>
+      <c r="B1368">
+        <v>2496.21</v>
+      </c>
+      <c r="C1368">
+        <v>2501.14</v>
+      </c>
+      <c r="D1368">
+        <v>2493.42</v>
+      </c>
+      <c r="E1368">
+        <v>2499.8</v>
+      </c>
+      <c r="F1368">
+        <v>4420.6742</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:6">
+      <c r="A1369" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="B1369">
+        <v>2499.79</v>
+      </c>
+      <c r="C1369">
+        <v>2508.19</v>
+      </c>
+      <c r="D1369">
+        <v>2493.68</v>
+      </c>
+      <c r="E1369">
+        <v>2507.01</v>
+      </c>
+      <c r="F1369">
+        <v>3102.2691</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:6">
+      <c r="A1370" s="2">
+        <v>45535.875</v>
+      </c>
+      <c r="B1370">
+        <v>2507.02</v>
+      </c>
+      <c r="C1370">
+        <v>2512.64</v>
+      </c>
+      <c r="D1370">
+        <v>2503.4</v>
+      </c>
+      <c r="E1370">
+        <v>2509.6</v>
+      </c>
+      <c r="F1370">
+        <v>4456.8579</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:6">
+      <c r="A1371" s="2">
+        <v>45535.91666666666</v>
+      </c>
+      <c r="B1371">
+        <v>2517.91</v>
+      </c>
+      <c r="C1371">
+        <v>2522.21</v>
+      </c>
+      <c r="D1371">
+        <v>2515.84</v>
+      </c>
+      <c r="E1371">
+        <v>2517</v>
+      </c>
+      <c r="F1371">
+        <v>2659.668</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:6">
+      <c r="A1372" s="2">
+        <v>45535.95833333334</v>
+      </c>
+      <c r="B1372">
+        <v>2517.01</v>
+      </c>
+      <c r="C1372">
+        <v>2518.73</v>
+      </c>
+      <c r="D1372">
+        <v>2511.25</v>
+      </c>
+      <c r="E1372">
+        <v>2513.01</v>
+      </c>
+      <c r="F1372">
+        <v>1698.0071</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:6">
+      <c r="A1373" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1373">
+        <v>2513</v>
+      </c>
+      <c r="C1373">
+        <v>2516.28</v>
+      </c>
+      <c r="D1373">
+        <v>2504.75</v>
+      </c>
+      <c r="E1373">
+        <v>2505.4</v>
+      </c>
+      <c r="F1373">
+        <v>4364.9541</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:6">
+      <c r="A1374" s="2">
+        <v>45536.04166666666</v>
+      </c>
+      <c r="B1374">
+        <v>2505.4</v>
+      </c>
+      <c r="C1374">
+        <v>2508.73</v>
+      </c>
+      <c r="D1374">
+        <v>2493.85</v>
+      </c>
+      <c r="E1374">
+        <v>2493.86</v>
+      </c>
+      <c r="F1374">
+        <v>4434.0318</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:6">
+      <c r="A1375" s="2">
+        <v>45536.08333333334</v>
+      </c>
+      <c r="B1375">
+        <v>2493.85</v>
+      </c>
+      <c r="C1375">
+        <v>2495.77</v>
+      </c>
+      <c r="D1375">
+        <v>2476.44</v>
+      </c>
+      <c r="E1375">
+        <v>2487.59</v>
+      </c>
+      <c r="F1375">
+        <v>9864.556399999999</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:6">
+      <c r="A1376" s="2">
+        <v>45536.125</v>
+      </c>
+      <c r="B1376">
+        <v>2487.59</v>
+      </c>
+      <c r="C1376">
+        <v>2495.74</v>
+      </c>
+      <c r="D1376">
+        <v>2485.28</v>
+      </c>
+      <c r="E1376">
+        <v>2488.74</v>
+      </c>
+      <c r="F1376">
+        <v>3376.8103</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:6">
+      <c r="A1377" s="2">
+        <v>45536.16666666666</v>
+      </c>
+      <c r="B1377">
+        <v>2488.75</v>
+      </c>
+      <c r="C1377">
+        <v>2491.18</v>
+      </c>
+      <c r="D1377">
+        <v>2477.28</v>
+      </c>
+      <c r="E1377">
+        <v>2486.4</v>
+      </c>
+      <c r="F1377">
+        <v>4646.1055</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:6">
+      <c r="A1378" s="2">
+        <v>45536.20833333334</v>
+      </c>
+      <c r="B1378">
+        <v>2486.4</v>
+      </c>
+      <c r="C1378">
+        <v>2488.29</v>
+      </c>
+      <c r="D1378">
+        <v>2458.84</v>
+      </c>
+      <c r="E1378">
+        <v>2464.72</v>
+      </c>
+      <c r="F1378">
+        <v>13260.4468</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:6">
+      <c r="A1379" s="2">
+        <v>45536.25</v>
+      </c>
+      <c r="B1379">
+        <v>2464.72</v>
+      </c>
+      <c r="C1379">
+        <v>2478.44</v>
+      </c>
+      <c r="D1379">
+        <v>2464.06</v>
+      </c>
+      <c r="E1379">
+        <v>2476.6</v>
+      </c>
+      <c r="F1379">
+        <v>3942.5641</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:6">
+      <c r="A1380" s="2">
+        <v>45536.29166666666</v>
+      </c>
+      <c r="B1380">
+        <v>2476.61</v>
+      </c>
+      <c r="C1380">
+        <v>2488.2</v>
+      </c>
+      <c r="D1380">
+        <v>2474.33</v>
+      </c>
+      <c r="E1380">
+        <v>2486.82</v>
+      </c>
+      <c r="F1380">
+        <v>4971.3611</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:6">
+      <c r="A1381" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="B1381">
+        <v>2486.82</v>
+      </c>
+      <c r="C1381">
+        <v>2489.45</v>
+      </c>
+      <c r="D1381">
+        <v>2477.65</v>
+      </c>
+      <c r="E1381">
+        <v>2479.7</v>
+      </c>
+      <c r="F1381">
+        <v>6004.8267</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:6">
+      <c r="A1382" s="2">
+        <v>45536.375</v>
+      </c>
+      <c r="B1382">
+        <v>2479.71</v>
+      </c>
+      <c r="C1382">
+        <v>2492.88</v>
+      </c>
+      <c r="D1382">
+        <v>2477.4</v>
+      </c>
+      <c r="E1382">
+        <v>2483.88</v>
+      </c>
+      <c r="F1382">
+        <v>4227.7625</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:6">
+      <c r="A1383" s="2">
+        <v>45536.41666666666</v>
+      </c>
+      <c r="B1383">
+        <v>2483.89</v>
+      </c>
+      <c r="C1383">
+        <v>2484.8</v>
+      </c>
+      <c r="D1383">
+        <v>2462.98</v>
+      </c>
+      <c r="E1383">
+        <v>2465</v>
+      </c>
+      <c r="F1383">
+        <v>5259.109</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:6">
+      <c r="A1384" s="2">
+        <v>45536.45833333334</v>
+      </c>
+      <c r="B1384">
+        <v>2465.01</v>
+      </c>
+      <c r="C1384">
+        <v>2478.43</v>
+      </c>
+      <c r="D1384">
+        <v>2459.02</v>
+      </c>
+      <c r="E1384">
+        <v>2477.74</v>
+      </c>
+      <c r="F1384">
+        <v>6876.4727</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:6">
+      <c r="A1385" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="B1385">
+        <v>2477.73</v>
+      </c>
+      <c r="C1385">
+        <v>2481</v>
+      </c>
+      <c r="D1385">
+        <v>2462.78</v>
+      </c>
+      <c r="E1385">
+        <v>2467.39</v>
+      </c>
+      <c r="F1385">
+        <v>5741.3279</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:6">
+      <c r="A1386" s="2">
+        <v>45536.54166666666</v>
+      </c>
+      <c r="B1386">
+        <v>2467.39</v>
+      </c>
+      <c r="C1386">
+        <v>2474.2</v>
+      </c>
+      <c r="D1386">
+        <v>2453</v>
+      </c>
+      <c r="E1386">
+        <v>2472.47</v>
+      </c>
+      <c r="F1386">
+        <v>9031.1392</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:6">
+      <c r="A1387" s="2">
+        <v>45536.58333333334</v>
+      </c>
+      <c r="B1387">
+        <v>2472.47</v>
+      </c>
+      <c r="C1387">
+        <v>2473.15</v>
+      </c>
+      <c r="D1387">
+        <v>2438</v>
+      </c>
+      <c r="E1387">
+        <v>2455.64</v>
+      </c>
+      <c r="F1387">
+        <v>19847.6506</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:6">
+      <c r="A1388" s="2">
+        <v>45536.625</v>
+      </c>
+      <c r="B1388">
+        <v>2455.63</v>
+      </c>
+      <c r="C1388">
+        <v>2489.31</v>
+      </c>
+      <c r="D1388">
+        <v>2449.56</v>
+      </c>
+      <c r="E1388">
+        <v>2480.83</v>
+      </c>
+      <c r="F1388">
+        <v>13358.2479</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:6">
+      <c r="A1389" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="B1389">
+        <v>2480.83</v>
+      </c>
+      <c r="C1389">
+        <v>2487.01</v>
+      </c>
+      <c r="D1389">
+        <v>2466.54</v>
+      </c>
+      <c r="E1389">
+        <v>2472.22</v>
+      </c>
+      <c r="F1389">
+        <v>7049.5338</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:6">
+      <c r="A1390" s="2">
+        <v>45536.70833333334</v>
+      </c>
+      <c r="B1390">
+        <v>2472.23</v>
+      </c>
+      <c r="C1390">
+        <v>2477.63</v>
+      </c>
+      <c r="D1390">
+        <v>2457.16</v>
+      </c>
+      <c r="E1390">
+        <v>2471.01</v>
+      </c>
+      <c r="F1390">
+        <v>4346.3453</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:6">
+      <c r="A1391" s="2">
+        <v>45536.75</v>
+      </c>
+      <c r="B1391">
+        <v>2471.01</v>
+      </c>
+      <c r="C1391">
+        <v>2499.15</v>
+      </c>
+      <c r="D1391">
+        <v>2468.45</v>
+      </c>
+      <c r="E1391">
+        <v>2494.13</v>
+      </c>
+      <c r="F1391">
+        <v>10363.3804</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:6">
+      <c r="A1392" s="2">
+        <v>45536.79166666666</v>
+      </c>
+      <c r="B1392">
+        <v>2494.13</v>
+      </c>
+      <c r="C1392">
+        <v>2514.82</v>
+      </c>
+      <c r="D1392">
+        <v>2491.3</v>
+      </c>
+      <c r="E1392">
+        <v>2501.71</v>
+      </c>
+      <c r="F1392">
+        <v>17025.0561</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:6">
+      <c r="A1393" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="B1393">
+        <v>2501.71</v>
+      </c>
+      <c r="C1393">
+        <v>2516</v>
+      </c>
+      <c r="D1393">
+        <v>2500</v>
+      </c>
+      <c r="E1393">
+        <v>2502.2</v>
+      </c>
+      <c r="F1393">
+        <v>4644.0211</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:6">
+      <c r="A1394" s="2">
+        <v>45536.875</v>
+      </c>
+      <c r="B1394">
+        <v>2502.21</v>
+      </c>
+      <c r="C1394">
+        <v>2502.68</v>
+      </c>
+      <c r="D1394">
+        <v>2473.6</v>
+      </c>
+      <c r="E1394">
+        <v>2485.6</v>
+      </c>
+      <c r="F1394">
+        <v>6706.3266</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:6">
+      <c r="A1395" s="2">
+        <v>45536.91666666666</v>
+      </c>
+      <c r="B1395">
+        <v>2485.6</v>
+      </c>
+      <c r="C1395">
+        <v>2487.29</v>
+      </c>
+      <c r="D1395">
+        <v>2402.57</v>
+      </c>
+      <c r="E1395">
+        <v>2406.32</v>
+      </c>
+      <c r="F1395">
+        <v>34213.5877</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:6">
+      <c r="A1396" s="2">
+        <v>45536.95833333334</v>
+      </c>
+      <c r="B1396">
+        <v>2406.32</v>
+      </c>
+      <c r="C1396">
+        <v>2433.29</v>
+      </c>
+      <c r="D1396">
+        <v>2400</v>
+      </c>
+      <c r="E1396">
+        <v>2425.72</v>
+      </c>
+      <c r="F1396">
+        <v>19572.1584</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:6">
+      <c r="A1397" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1397">
+        <v>2425.71</v>
+      </c>
+      <c r="C1397">
+        <v>2455.26</v>
+      </c>
+      <c r="D1397">
+        <v>2423.52</v>
+      </c>
+      <c r="E1397">
+        <v>2441.12</v>
+      </c>
+      <c r="F1397">
+        <v>13661.743</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:6">
+      <c r="A1398" s="2">
+        <v>45537.04166666666</v>
+      </c>
+      <c r="B1398">
+        <v>2441.13</v>
+      </c>
+      <c r="C1398">
+        <v>2447</v>
+      </c>
+      <c r="D1398">
+        <v>2431.78</v>
+      </c>
+      <c r="E1398">
+        <v>2440</v>
+      </c>
+      <c r="F1398">
+        <v>8416.970600000001</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:6">
+      <c r="A1399" s="2">
+        <v>45537.08333333334</v>
+      </c>
+      <c r="B1399">
+        <v>2440</v>
+      </c>
+      <c r="C1399">
+        <v>2451.68</v>
+      </c>
+      <c r="D1399">
+        <v>2431.5</v>
+      </c>
+      <c r="E1399">
+        <v>2437.49</v>
+      </c>
+      <c r="F1399">
+        <v>7297.271</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:6">
+      <c r="A1400" s="2">
+        <v>45537.125</v>
+      </c>
+      <c r="B1400">
+        <v>2437.49</v>
+      </c>
+      <c r="C1400">
+        <v>2451.92</v>
+      </c>
+      <c r="D1400">
+        <v>2437.16</v>
+      </c>
+      <c r="E1400">
+        <v>2450.52</v>
+      </c>
+      <c r="F1400">
+        <v>5955.6723</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:6">
+      <c r="A1401" s="2">
+        <v>45537.16666666666</v>
+      </c>
+      <c r="B1401">
+        <v>2450.47</v>
+      </c>
+      <c r="C1401">
+        <v>2451.35</v>
+      </c>
+      <c r="D1401">
+        <v>2434.97</v>
+      </c>
+      <c r="E1401">
+        <v>2435.4</v>
+      </c>
+      <c r="F1401">
+        <v>9087.859200000001</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:6">
+      <c r="A1402" s="2">
+        <v>45537.20833333334</v>
+      </c>
+      <c r="B1402">
+        <v>2435.4</v>
+      </c>
+      <c r="C1402">
+        <v>2466.2</v>
+      </c>
+      <c r="D1402">
+        <v>2435.28</v>
+      </c>
+      <c r="E1402">
+        <v>2454.13</v>
+      </c>
+      <c r="F1402">
+        <v>11740.8493</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:6">
+      <c r="A1403" s="2">
+        <v>45537.25</v>
+      </c>
+      <c r="B1403">
+        <v>2454.14</v>
+      </c>
+      <c r="C1403">
+        <v>2458.64</v>
+      </c>
+      <c r="D1403">
+        <v>2445.72</v>
+      </c>
+      <c r="E1403">
+        <v>2446.69</v>
+      </c>
+      <c r="F1403">
+        <v>6407.0554</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:6">
+      <c r="A1404" s="2">
+        <v>45537.29166666666</v>
+      </c>
+      <c r="B1404">
+        <v>2446.7</v>
+      </c>
+      <c r="C1404">
+        <v>2451.33</v>
+      </c>
+      <c r="D1404">
+        <v>2433.18</v>
+      </c>
+      <c r="E1404">
+        <v>2441.14</v>
+      </c>
+      <c r="F1404">
+        <v>10708.1034</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:6">
+      <c r="A1405" s="2">
+        <v>45537.33333333334</v>
+      </c>
+      <c r="B1405">
+        <v>2441.14</v>
+      </c>
+      <c r="C1405">
+        <v>2476.15</v>
+      </c>
+      <c r="D1405">
+        <v>2438.39</v>
+      </c>
+      <c r="E1405">
+        <v>2468.81</v>
+      </c>
+      <c r="F1405">
+        <v>21161.9915</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:6">
+      <c r="A1406" s="2">
+        <v>45537.375</v>
+      </c>
+      <c r="B1406">
+        <v>2468.8</v>
+      </c>
+      <c r="C1406">
+        <v>2520.41</v>
+      </c>
+      <c r="D1406">
+        <v>2461.7</v>
+      </c>
+      <c r="E1406">
+        <v>2516.19</v>
+      </c>
+      <c r="F1406">
+        <v>29679.1703</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:6">
+      <c r="A1407" s="2">
+        <v>45537.41666666666</v>
+      </c>
+      <c r="B1407">
+        <v>2516.19</v>
+      </c>
+      <c r="C1407">
+        <v>2539.53</v>
+      </c>
+      <c r="D1407">
+        <v>2510.07</v>
+      </c>
+      <c r="E1407">
+        <v>2524.79</v>
+      </c>
+      <c r="F1407">
+        <v>25938.5132</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:6">
+      <c r="A1408" s="2">
+        <v>45537.45833333334</v>
+      </c>
+      <c r="B1408">
+        <v>2524.78</v>
+      </c>
+      <c r="C1408">
+        <v>2527.97</v>
+      </c>
+      <c r="D1408">
+        <v>2516</v>
+      </c>
+      <c r="E1408">
+        <v>2516.82</v>
+      </c>
+      <c r="F1408">
+        <v>8080.3916</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:6">
+      <c r="A1409" s="2">
+        <v>45537.5</v>
+      </c>
+      <c r="B1409">
+        <v>2515.81</v>
+      </c>
+      <c r="C1409">
+        <v>2524.67</v>
+      </c>
+      <c r="D1409">
+        <v>2510.59</v>
+      </c>
+      <c r="E1409">
+        <v>2520.79</v>
+      </c>
+      <c r="F1409">
+        <v>8892.775299999999</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:6">
+      <c r="A1410" s="2">
+        <v>45537.54166666666</v>
+      </c>
+      <c r="B1410">
+        <v>2520.79</v>
+      </c>
+      <c r="C1410">
+        <v>2523.19</v>
+      </c>
+      <c r="D1410">
+        <v>2504.4</v>
+      </c>
+      <c r="E1410">
+        <v>2505.21</v>
+      </c>
+      <c r="F1410">
+        <v>10525.8327</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:6">
+      <c r="A1411" s="2">
+        <v>45537.58333333334</v>
+      </c>
+      <c r="B1411">
+        <v>2505.21</v>
+      </c>
+      <c r="C1411">
+        <v>2528</v>
+      </c>
+      <c r="D1411">
+        <v>2492.55</v>
+      </c>
+      <c r="E1411">
+        <v>2519.61</v>
+      </c>
+      <c r="F1411">
+        <v>13931.6148</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:6">
+      <c r="A1412" s="2">
+        <v>45537.625</v>
+      </c>
+      <c r="B1412">
+        <v>2519.6</v>
+      </c>
+      <c r="C1412">
+        <v>2525.79</v>
+      </c>
+      <c r="D1412">
+        <v>2512.75</v>
+      </c>
+      <c r="E1412">
+        <v>2513.2</v>
+      </c>
+      <c r="F1412">
+        <v>8293.200999999999</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:6">
+      <c r="A1413" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="B1413">
+        <v>2513.2</v>
+      </c>
+      <c r="C1413">
+        <v>2521.4</v>
+      </c>
+      <c r="D1413">
+        <v>2505.78</v>
+      </c>
+      <c r="E1413">
+        <v>2511.97</v>
+      </c>
+      <c r="F1413">
+        <v>10510.6857</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:6">
+      <c r="A1414" s="2">
+        <v>45537.70833333334</v>
+      </c>
+      <c r="B1414">
+        <v>2511.96</v>
+      </c>
+      <c r="C1414">
+        <v>2525</v>
+      </c>
+      <c r="D1414">
+        <v>2511.75</v>
+      </c>
+      <c r="E1414">
+        <v>2522.78</v>
+      </c>
+      <c r="F1414">
+        <v>5948.2734</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:6">
+      <c r="A1415" s="2">
+        <v>45537.75</v>
+      </c>
+      <c r="B1415">
+        <v>2522.79</v>
+      </c>
+      <c r="C1415">
+        <v>2530.92</v>
+      </c>
+      <c r="D1415">
+        <v>2515.55</v>
+      </c>
+      <c r="E1415">
+        <v>2523.86</v>
+      </c>
+      <c r="F1415">
+        <v>5845.3272</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:6">
+      <c r="A1416" s="2">
+        <v>45537.79166666666</v>
+      </c>
+      <c r="B1416">
+        <v>2523.86</v>
+      </c>
+      <c r="C1416">
+        <v>2526.64</v>
+      </c>
+      <c r="D1416">
+        <v>2519.21</v>
+      </c>
+      <c r="E1416">
+        <v>2524.25</v>
+      </c>
+      <c r="F1416">
+        <v>7611.8138</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:6">
+      <c r="A1417" s="2">
+        <v>45537.83333333334</v>
+      </c>
+      <c r="B1417">
+        <v>2524.26</v>
+      </c>
+      <c r="C1417">
+        <v>2564.83</v>
+      </c>
+      <c r="D1417">
+        <v>2522.22</v>
+      </c>
+      <c r="E1417">
+        <v>2554.14</v>
+      </c>
+      <c r="F1417">
+        <v>15027.9224</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:6">
+      <c r="A1418" s="2">
+        <v>45537.875</v>
+      </c>
+      <c r="B1418">
+        <v>2554.13</v>
+      </c>
+      <c r="C1418">
+        <v>2563.07</v>
+      </c>
+      <c r="D1418">
+        <v>2536.7</v>
+      </c>
+      <c r="E1418">
+        <v>2544.73</v>
+      </c>
+      <c r="F1418">
+        <v>7913.7582</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:6">
+      <c r="A1419" s="2">
+        <v>45537.91666666666</v>
+      </c>
+      <c r="B1419">
+        <v>2544.73</v>
+      </c>
+      <c r="C1419">
+        <v>2548.75</v>
+      </c>
+      <c r="D1419">
+        <v>2541.17</v>
+      </c>
+      <c r="E1419">
+        <v>2545.14</v>
+      </c>
+      <c r="F1419">
+        <v>4738.6127</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:6">
+      <c r="A1420" s="2">
+        <v>45537.95833333334</v>
+      </c>
+      <c r="B1420">
+        <v>2545.14</v>
+      </c>
+      <c r="C1420">
+        <v>2547.73</v>
+      </c>
+      <c r="D1420">
+        <v>2534.44</v>
+      </c>
+      <c r="E1420">
+        <v>2538.01</v>
+      </c>
+      <c r="F1420">
+        <v>4223.8167</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:6">
+      <c r="A1421" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1421">
+        <v>2538</v>
+      </c>
+      <c r="C1421">
+        <v>2540.35</v>
+      </c>
+      <c r="D1421">
+        <v>2528.08</v>
+      </c>
+      <c r="E1421">
+        <v>2534.65</v>
+      </c>
+      <c r="F1421">
+        <v>6004.941</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:6">
+      <c r="A1422" s="2">
+        <v>45538.04166666666</v>
+      </c>
+      <c r="B1422">
+        <v>2534.65</v>
+      </c>
+      <c r="C1422">
+        <v>2543.65</v>
+      </c>
+      <c r="D1422">
+        <v>2527.63</v>
+      </c>
+      <c r="E1422">
+        <v>2535.55</v>
+      </c>
+      <c r="F1422">
+        <v>5291.2759</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:6">
+      <c r="A1423" s="2">
+        <v>45538.08333333334</v>
+      </c>
+      <c r="B1423">
+        <v>2535.55</v>
+      </c>
+      <c r="C1423">
+        <v>2553.6</v>
+      </c>
+      <c r="D1423">
+        <v>2528.29</v>
+      </c>
+      <c r="E1423">
+        <v>2529.1</v>
+      </c>
+      <c r="F1423">
+        <v>10071.4383</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:6">
+      <c r="A1424" s="2">
+        <v>45538.125</v>
+      </c>
+      <c r="B1424">
+        <v>2529.1</v>
+      </c>
+      <c r="C1424">
+        <v>2529.8</v>
+      </c>
+      <c r="D1424">
+        <v>2514.73</v>
+      </c>
+      <c r="E1424">
+        <v>2516</v>
+      </c>
+      <c r="F1424">
+        <v>6362.5033</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:6">
+      <c r="A1425" s="2">
+        <v>45538.16666666666</v>
+      </c>
+      <c r="B1425">
+        <v>2516</v>
+      </c>
+      <c r="C1425">
+        <v>2521.99</v>
+      </c>
+      <c r="D1425">
+        <v>2513.39</v>
+      </c>
+      <c r="E1425">
+        <v>2518.37</v>
+      </c>
+      <c r="F1425">
+        <v>5392.7735</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:6">
+      <c r="A1426" s="2">
+        <v>45538.20833333334</v>
+      </c>
+      <c r="B1426">
+        <v>2518.37</v>
+      </c>
+      <c r="C1426">
+        <v>2525.2</v>
+      </c>
+      <c r="D1426">
+        <v>2515.01</v>
+      </c>
+      <c r="E1426">
+        <v>2522.14</v>
+      </c>
+      <c r="F1426">
+        <v>3579.5444</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:6">
+      <c r="A1427" s="2">
+        <v>45538.25</v>
+      </c>
+      <c r="B1427">
+        <v>2522.14</v>
+      </c>
+      <c r="C1427">
+        <v>2522.14</v>
+      </c>
+      <c r="D1427">
+        <v>2512.46</v>
+      </c>
+      <c r="E1427">
+        <v>2513.03</v>
+      </c>
+      <c r="F1427">
+        <v>5150.6409</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:6">
+      <c r="A1428" s="2">
+        <v>45538.29166666666</v>
+      </c>
+      <c r="B1428">
+        <v>2513.04</v>
+      </c>
+      <c r="C1428">
+        <v>2523.62</v>
+      </c>
+      <c r="D1428">
+        <v>2513.04</v>
+      </c>
+      <c r="E1428">
+        <v>2519.55</v>
+      </c>
+      <c r="F1428">
+        <v>5260.2224</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:6">
+      <c r="A1429" s="2">
+        <v>45538.33333333334</v>
+      </c>
+      <c r="B1429">
+        <v>2519.55</v>
+      </c>
+      <c r="C1429">
+        <v>2520.54</v>
+      </c>
+      <c r="D1429">
+        <v>2494.24</v>
+      </c>
+      <c r="E1429">
+        <v>2500.07</v>
+      </c>
+      <c r="F1429">
+        <v>8385.182699999999</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:6">
+      <c r="A1430" s="2">
+        <v>45538.375</v>
+      </c>
+      <c r="B1430">
+        <v>2500.07</v>
+      </c>
+      <c r="C1430">
+        <v>2508.94</v>
+      </c>
+      <c r="D1430">
+        <v>2498.14</v>
+      </c>
+      <c r="E1430">
+        <v>2504.2</v>
+      </c>
+      <c r="F1430">
+        <v>4977.4414</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:6">
+      <c r="A1431" s="2">
+        <v>45538.41666666666</v>
+      </c>
+      <c r="B1431">
+        <v>2504.2</v>
+      </c>
+      <c r="C1431">
+        <v>2513</v>
+      </c>
+      <c r="D1431">
+        <v>2499.4</v>
+      </c>
+      <c r="E1431">
+        <v>2505.3</v>
+      </c>
+      <c r="F1431">
+        <v>4525.3437</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:6">
+      <c r="A1432" s="2">
+        <v>45538.45833333334</v>
+      </c>
+      <c r="B1432">
+        <v>2505.34</v>
+      </c>
+      <c r="C1432">
+        <v>2510.84</v>
+      </c>
+      <c r="D1432">
+        <v>2501.6</v>
+      </c>
+      <c r="E1432">
+        <v>2509.59</v>
+      </c>
+      <c r="F1432">
+        <v>2816.5003</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:6">
+      <c r="A1433" s="2">
+        <v>45538.5</v>
+      </c>
+      <c r="B1433">
+        <v>2509.59</v>
+      </c>
+      <c r="C1433">
+        <v>2519.12</v>
+      </c>
+      <c r="D1433">
+        <v>2506.14</v>
+      </c>
+      <c r="E1433">
+        <v>2510.72</v>
+      </c>
+      <c r="F1433">
+        <v>5838.4668</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:6">
+      <c r="A1434" s="2">
+        <v>45538.54166666666</v>
+      </c>
+      <c r="B1434">
+        <v>2510.72</v>
+      </c>
+      <c r="C1434">
+        <v>2517.93</v>
+      </c>
+      <c r="D1434">
+        <v>2459.12</v>
+      </c>
+      <c r="E1434">
+        <v>2465.1</v>
+      </c>
+      <c r="F1434">
+        <v>25272.9985</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:6">
+      <c r="A1435" s="2">
+        <v>45538.58333333334</v>
+      </c>
+      <c r="B1435">
+        <v>2465.09</v>
+      </c>
+      <c r="C1435">
+        <v>2469.35</v>
+      </c>
+      <c r="D1435">
+        <v>2443.21</v>
+      </c>
+      <c r="E1435">
+        <v>2446.26</v>
+      </c>
+      <c r="F1435">
+        <v>31220.4681</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:6">
+      <c r="A1436" s="2">
+        <v>45538.625</v>
+      </c>
+      <c r="B1436">
+        <v>2446.27</v>
+      </c>
+      <c r="C1436">
+        <v>2456.37</v>
+      </c>
+      <c r="D1436">
+        <v>2435.79</v>
+      </c>
+      <c r="E1436">
+        <v>2444.01</v>
+      </c>
+      <c r="F1436">
+        <v>19186.5668</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:6">
+      <c r="A1437" s="2">
+        <v>45538.66666666666</v>
+      </c>
+      <c r="B1437">
+        <v>2444.01</v>
+      </c>
+      <c r="C1437">
+        <v>2449.02</v>
+      </c>
+      <c r="D1437">
+        <v>2437.4</v>
+      </c>
+      <c r="E1437">
+        <v>2440.35</v>
+      </c>
+      <c r="F1437">
+        <v>11464.9151</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:6">
+      <c r="A1438" s="2">
+        <v>45538.70833333334</v>
+      </c>
+      <c r="B1438">
+        <v>2440.28</v>
+      </c>
+      <c r="C1438">
+        <v>2464</v>
+      </c>
+      <c r="D1438">
+        <v>2438.52</v>
+      </c>
+      <c r="E1438">
+        <v>2442.3</v>
+      </c>
+      <c r="F1438">
+        <v>8506.3686</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:6">
+      <c r="A1439" s="2">
+        <v>45538.75</v>
+      </c>
+      <c r="B1439">
+        <v>2442.3</v>
+      </c>
+      <c r="C1439">
+        <v>2457</v>
+      </c>
+      <c r="D1439">
+        <v>2435.83</v>
+      </c>
+      <c r="E1439">
+        <v>2452.2</v>
+      </c>
+      <c r="F1439">
+        <v>10636.3651</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:6">
+      <c r="A1440" s="2">
+        <v>45538.79166666666</v>
+      </c>
+      <c r="B1440">
+        <v>2452.2</v>
+      </c>
+      <c r="C1440">
+        <v>2469.87</v>
+      </c>
+      <c r="D1440">
+        <v>2446.25</v>
+      </c>
+      <c r="E1440">
+        <v>2447.6</v>
+      </c>
+      <c r="F1440">
+        <v>10920.4843</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:6">
+      <c r="A1441" s="2">
+        <v>45538.83333333334</v>
+      </c>
+      <c r="B1441">
+        <v>2447.6</v>
+      </c>
+      <c r="C1441">
+        <v>2465.47</v>
+      </c>
+      <c r="D1441">
+        <v>2447.43</v>
+      </c>
+      <c r="E1441">
+        <v>2463.61</v>
+      </c>
+      <c r="F1441">
+        <v>6659.044</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:6">
+      <c r="A1442" s="2">
+        <v>45538.875</v>
+      </c>
+      <c r="B1442">
+        <v>2463.62</v>
+      </c>
+      <c r="C1442">
+        <v>2470.57</v>
+      </c>
+      <c r="D1442">
+        <v>2449.61</v>
+      </c>
+      <c r="E1442">
+        <v>2464.99</v>
+      </c>
+      <c r="F1442">
+        <v>8188.8682</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:6">
+      <c r="A1443" s="2">
+        <v>45538.91666666666</v>
+      </c>
+      <c r="B1443">
+        <v>2465</v>
+      </c>
+      <c r="C1443">
+        <v>2465.97</v>
+      </c>
+      <c r="D1443">
+        <v>2453.59</v>
+      </c>
+      <c r="E1443">
+        <v>2453.59</v>
+      </c>
+      <c r="F1443">
+        <v>3674.0529</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:6">
+      <c r="A1444" s="2">
+        <v>45538.95833333334</v>
+      </c>
+      <c r="B1444">
+        <v>2453.6</v>
+      </c>
+      <c r="C1444">
+        <v>2455</v>
+      </c>
+      <c r="D1444">
+        <v>2411.12</v>
+      </c>
+      <c r="E1444">
+        <v>2425.29</v>
+      </c>
+      <c r="F1444">
+        <v>15406.7237</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:6">
+      <c r="A1445" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1445">
+        <v>2425.28</v>
+      </c>
+      <c r="C1445">
+        <v>2449.22</v>
+      </c>
+      <c r="D1445">
+        <v>2389.2</v>
+      </c>
+      <c r="E1445">
+        <v>2396.28</v>
+      </c>
+      <c r="F1445">
+        <v>23997.2894</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:6">
+      <c r="A1446" s="2">
+        <v>45539.04166666666</v>
+      </c>
+      <c r="B1446">
+        <v>2396.28</v>
+      </c>
+      <c r="C1446">
+        <v>2397.12</v>
+      </c>
+      <c r="D1446">
+        <v>2306.65</v>
+      </c>
+      <c r="E1446">
+        <v>2366.11</v>
+      </c>
+      <c r="F1446">
+        <v>95628.21980000001</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:6">
+      <c r="A1447" s="2">
+        <v>45539.08333333334</v>
+      </c>
+      <c r="B1447">
+        <v>2366.11</v>
+      </c>
+      <c r="C1447">
+        <v>2371.4</v>
+      </c>
+      <c r="D1447">
+        <v>2355.73</v>
+      </c>
+      <c r="E1447">
+        <v>2364.44</v>
+      </c>
+      <c r="F1447">
+        <v>13060.1063</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:6">
+      <c r="A1448" s="2">
+        <v>45539.125</v>
+      </c>
+      <c r="B1448">
+        <v>2364.44</v>
+      </c>
+      <c r="C1448">
+        <v>2382.48</v>
+      </c>
+      <c r="D1448">
+        <v>2364.07</v>
+      </c>
+      <c r="E1448">
+        <v>2373</v>
+      </c>
+      <c r="F1448">
+        <v>11681.3111</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:6">
+      <c r="A1449" s="2">
+        <v>45539.16666666666</v>
+      </c>
+      <c r="B1449">
+        <v>2372.99</v>
+      </c>
+      <c r="C1449">
+        <v>2380.1</v>
+      </c>
+      <c r="D1449">
+        <v>2366.12</v>
+      </c>
+      <c r="E1449">
+        <v>2378.6</v>
+      </c>
+      <c r="F1449">
+        <v>6379.2723</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:6">
+      <c r="A1450" s="2">
+        <v>45539.20833333334</v>
+      </c>
+      <c r="B1450">
+        <v>2378.59</v>
+      </c>
+      <c r="C1450">
+        <v>2381.45</v>
+      </c>
+      <c r="D1450">
+        <v>2363.56</v>
+      </c>
+      <c r="E1450">
+        <v>2365.24</v>
+      </c>
+      <c r="F1450">
+        <v>13134.6059</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:6">
+      <c r="A1451" s="2">
+        <v>45539.25</v>
+      </c>
+      <c r="B1451">
+        <v>2365.24</v>
+      </c>
+      <c r="C1451">
+        <v>2383.94</v>
+      </c>
+      <c r="D1451">
+        <v>2365.24</v>
+      </c>
+      <c r="E1451">
+        <v>2372.52</v>
+      </c>
+      <c r="F1451">
+        <v>9309.119500000001</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:6">
+      <c r="A1452" s="2">
+        <v>45539.29166666666</v>
+      </c>
+      <c r="B1452">
+        <v>2372.51</v>
+      </c>
+      <c r="C1452">
+        <v>2414.71</v>
+      </c>
+      <c r="D1452">
+        <v>2370.6</v>
+      </c>
+      <c r="E1452">
+        <v>2401.52</v>
+      </c>
+      <c r="F1452">
+        <v>16896.3521</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:6">
+      <c r="A1453" s="2">
+        <v>45539.33333333334</v>
+      </c>
+      <c r="B1453">
+        <v>2401.52</v>
+      </c>
+      <c r="C1453">
+        <v>2410.83</v>
+      </c>
+      <c r="D1453">
+        <v>2395.6</v>
+      </c>
+      <c r="E1453">
+        <v>2401.4</v>
+      </c>
+      <c r="F1453">
+        <v>10457.5852</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:6">
+      <c r="A1454" s="2">
+        <v>45539.375</v>
+      </c>
+      <c r="B1454">
+        <v>2401.41</v>
+      </c>
+      <c r="C1454">
+        <v>2405</v>
+      </c>
+      <c r="D1454">
+        <v>2392.6</v>
+      </c>
+      <c r="E1454">
+        <v>2393.4</v>
+      </c>
+      <c r="F1454">
+        <v>10948.859</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:6">
+      <c r="A1455" s="2">
+        <v>45539.41666666666</v>
+      </c>
+      <c r="B1455">
+        <v>2393.4</v>
+      </c>
+      <c r="C1455">
+        <v>2403.4</v>
+      </c>
+      <c r="D1455">
+        <v>2387.15</v>
+      </c>
+      <c r="E1455">
+        <v>2389.14</v>
+      </c>
+      <c r="F1455">
+        <v>8271.4321</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:6">
+      <c r="A1456" s="2">
+        <v>45539.45833333334</v>
+      </c>
+      <c r="B1456">
+        <v>2389.14</v>
+      </c>
+      <c r="C1456">
+        <v>2403.2</v>
+      </c>
+      <c r="D1456">
+        <v>2388.9</v>
+      </c>
+      <c r="E1456">
+        <v>2398.77</v>
+      </c>
+      <c r="F1456">
+        <v>6942.7586</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:6">
+      <c r="A1457" s="2">
+        <v>45539.5</v>
+      </c>
+      <c r="B1457">
+        <v>2398.77</v>
+      </c>
+      <c r="C1457">
+        <v>2413.81</v>
+      </c>
+      <c r="D1457">
+        <v>2395.05</v>
+      </c>
+      <c r="E1457">
+        <v>2403.18</v>
+      </c>
+      <c r="F1457">
+        <v>16367.9783</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:6">
+      <c r="A1458" s="2">
+        <v>45539.54166666666</v>
+      </c>
+      <c r="B1458">
+        <v>2403.18</v>
+      </c>
+      <c r="C1458">
+        <v>2410</v>
+      </c>
+      <c r="D1458">
+        <v>2394.77</v>
+      </c>
+      <c r="E1458">
+        <v>2404.98</v>
+      </c>
+      <c r="F1458">
+        <v>15633.3075</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:6">
+      <c r="A1459" s="2">
+        <v>45539.58333333334</v>
+      </c>
+      <c r="B1459">
+        <v>2404.98</v>
+      </c>
+      <c r="C1459">
+        <v>2450.68</v>
+      </c>
+      <c r="D1459">
+        <v>2393.16</v>
+      </c>
+      <c r="E1459">
+        <v>2438.49</v>
+      </c>
+      <c r="F1459">
+        <v>34957.7701</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:6">
+      <c r="A1460" s="2">
+        <v>45539.625</v>
+      </c>
+      <c r="B1460">
+        <v>2438.49</v>
+      </c>
+      <c r="C1460">
+        <v>2458.57</v>
+      </c>
+      <c r="D1460">
+        <v>2426.5</v>
+      </c>
+      <c r="E1460">
+        <v>2455.4</v>
+      </c>
+      <c r="F1460">
+        <v>24280.9611</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:6">
+      <c r="A1461" s="2">
+        <v>45539.66666666666</v>
+      </c>
+      <c r="B1461">
+        <v>2455.39</v>
+      </c>
+      <c r="C1461">
+        <v>2490</v>
+      </c>
+      <c r="D1461">
+        <v>2450</v>
+      </c>
+      <c r="E1461">
+        <v>2477.12</v>
+      </c>
+      <c r="F1461">
+        <v>24538.217</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:6">
+      <c r="A1462" s="2">
+        <v>45539.70833333334</v>
+      </c>
+      <c r="B1462">
+        <v>2477.12</v>
+      </c>
+      <c r="C1462">
+        <v>2477.96</v>
+      </c>
+      <c r="D1462">
+        <v>2447.81</v>
+      </c>
+      <c r="E1462">
+        <v>2449.49</v>
+      </c>
+      <c r="F1462">
+        <v>12731.0707</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:6">
+      <c r="A1463" s="2">
+        <v>45539.75</v>
+      </c>
+      <c r="B1463">
+        <v>2449.49</v>
+      </c>
+      <c r="C1463">
+        <v>2457.16</v>
+      </c>
+      <c r="D1463">
+        <v>2439.2</v>
+      </c>
+      <c r="E1463">
+        <v>2442.39</v>
+      </c>
+      <c r="F1463">
+        <v>6891.7159</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:6">
+      <c r="A1464" s="2">
+        <v>45539.79166666666</v>
+      </c>
+      <c r="B1464">
+        <v>2442.39</v>
+      </c>
+      <c r="C1464">
+        <v>2452.06</v>
+      </c>
+      <c r="D1464">
+        <v>2440.5</v>
+      </c>
+      <c r="E1464">
+        <v>2450.98</v>
+      </c>
+      <c r="F1464">
+        <v>2631.1664</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:6">
+      <c r="A1465" s="2">
+        <v>45539.83333333334</v>
+      </c>
+      <c r="B1465">
+        <v>2452.15</v>
+      </c>
+      <c r="C1465">
+        <v>2459.6</v>
+      </c>
+      <c r="D1465">
+        <v>2446.01</v>
+      </c>
+      <c r="E1465">
+        <v>2455.38</v>
+      </c>
+      <c r="F1465">
+        <v>5645.6907</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:6">
+      <c r="A1466" s="2">
+        <v>45539.875</v>
+      </c>
+      <c r="B1466">
+        <v>2455.39</v>
+      </c>
+      <c r="C1466">
+        <v>2465.63</v>
+      </c>
+      <c r="D1466">
+        <v>2451.28</v>
+      </c>
+      <c r="E1466">
+        <v>2463.13</v>
+      </c>
+      <c r="F1466">
+        <v>2830.0018</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:6">
+      <c r="A1467" s="2">
+        <v>45539.91666666666</v>
+      </c>
+      <c r="B1467">
+        <v>2463.13</v>
+      </c>
+      <c r="C1467">
+        <v>2469.55</v>
+      </c>
+      <c r="D1467">
+        <v>2458.61</v>
+      </c>
+      <c r="E1467">
+        <v>2462.71</v>
+      </c>
+      <c r="F1467">
+        <v>4800.1296</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:6">
+      <c r="A1468" s="2">
+        <v>45539.95833333334</v>
+      </c>
+      <c r="B1468">
+        <v>2462.71</v>
+      </c>
+      <c r="C1468">
+        <v>2464.62</v>
+      </c>
+      <c r="D1468">
+        <v>2443.32</v>
+      </c>
+      <c r="E1468">
+        <v>2450.71</v>
+      </c>
+      <c r="F1468">
+        <v>4734.8495</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:6">
+      <c r="A1469" s="2">
+        <v>45540</v>
+      </c>
+      <c r="B1469">
+        <v>2450.71</v>
+      </c>
+      <c r="C1469">
+        <v>2462.35</v>
+      </c>
+      <c r="D1469">
+        <v>2447.17</v>
+      </c>
+      <c r="E1469">
+        <v>2454.75</v>
+      </c>
+      <c r="F1469">
+        <v>9054.5627</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:6">
+      <c r="A1470" s="2">
+        <v>45540.04166666666</v>
+      </c>
+      <c r="B1470">
+        <v>2454.74</v>
+      </c>
+      <c r="C1470">
+        <v>2466</v>
+      </c>
+      <c r="D1470">
+        <v>2451.9</v>
+      </c>
+      <c r="E1470">
+        <v>2458.36</v>
+      </c>
+      <c r="F1470">
+        <v>5803.5315</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:6">
+      <c r="A1471" s="2">
+        <v>45540.08333333334</v>
+      </c>
+      <c r="B1471">
+        <v>2458.36</v>
+      </c>
+      <c r="C1471">
+        <v>2460.29</v>
+      </c>
+      <c r="D1471">
+        <v>2443.12</v>
+      </c>
+      <c r="E1471">
+        <v>2446.06</v>
+      </c>
+      <c r="F1471">
+        <v>10961.8744</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:6">
+      <c r="A1472" s="2">
+        <v>45540.125</v>
+      </c>
+      <c r="B1472">
+        <v>2446.06</v>
+      </c>
+      <c r="C1472">
+        <v>2446.06</v>
+      </c>
+      <c r="D1472">
+        <v>2404.28</v>
+      </c>
+      <c r="E1472">
+        <v>2405.55</v>
+      </c>
+      <c r="F1472">
+        <v>25362.1749</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:6">
+      <c r="A1473" s="2">
+        <v>45540.16666666666</v>
+      </c>
+      <c r="B1473">
+        <v>2405.56</v>
+      </c>
+      <c r="C1473">
+        <v>2418.47</v>
+      </c>
+      <c r="D1473">
+        <v>2401.77</v>
+      </c>
+      <c r="E1473">
+        <v>2414.08</v>
+      </c>
+      <c r="F1473">
+        <v>11682.9843</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:6">
+      <c r="A1474" s="2">
+        <v>45540.20833333334</v>
+      </c>
+      <c r="B1474">
+        <v>2414.08</v>
+      </c>
+      <c r="C1474">
+        <v>2414.93</v>
+      </c>
+      <c r="D1474">
+        <v>2402.22</v>
+      </c>
+      <c r="E1474">
+        <v>2409.64</v>
+      </c>
+      <c r="F1474">
+        <v>6054.6632</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:6">
+      <c r="A1475" s="2">
+        <v>45540.25</v>
+      </c>
+      <c r="B1475">
+        <v>2409.64</v>
+      </c>
+      <c r="C1475">
+        <v>2410.23</v>
+      </c>
+      <c r="D1475">
+        <v>2376.72</v>
+      </c>
+      <c r="E1475">
+        <v>2399.04</v>
+      </c>
+      <c r="F1475">
+        <v>15884.658</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:6">
+      <c r="A1476" s="2">
+        <v>45540.29166666666</v>
+      </c>
+      <c r="B1476">
+        <v>2399.03</v>
+      </c>
+      <c r="C1476">
+        <v>2417.2</v>
+      </c>
+      <c r="D1476">
+        <v>2397.6</v>
+      </c>
+      <c r="E1476">
+        <v>2412.4</v>
+      </c>
+      <c r="F1476">
+        <v>8516.1672</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:6">
+      <c r="A1477" s="2">
+        <v>45540.33333333334</v>
+      </c>
+      <c r="B1477">
+        <v>2412.41</v>
+      </c>
+      <c r="C1477">
+        <v>2416.35</v>
+      </c>
+      <c r="D1477">
+        <v>2398.46</v>
+      </c>
+      <c r="E1477">
+        <v>2406.87</v>
+      </c>
+      <c r="F1477">
+        <v>6570.1098</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:6">
+      <c r="A1478" s="2">
+        <v>45540.375</v>
+      </c>
+      <c r="B1478">
+        <v>2406.87</v>
+      </c>
+      <c r="C1478">
+        <v>2407</v>
+      </c>
+      <c r="D1478">
+        <v>2385.65</v>
+      </c>
+      <c r="E1478">
+        <v>2392.21</v>
+      </c>
+      <c r="F1478">
+        <v>8504.1597</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:6">
+      <c r="A1479" s="2">
+        <v>45540.41666666666</v>
+      </c>
+      <c r="B1479">
+        <v>2392.2</v>
+      </c>
+      <c r="C1479">
+        <v>2395.91</v>
+      </c>
+      <c r="D1479">
+        <v>2383.16</v>
+      </c>
+      <c r="E1479">
+        <v>2390.73</v>
+      </c>
+      <c r="F1479">
+        <v>6225.0529</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:6">
+      <c r="A1480" s="2">
+        <v>45540.45833333334</v>
+      </c>
+      <c r="B1480">
+        <v>2390.74</v>
+      </c>
+      <c r="C1480">
+        <v>2395.65</v>
+      </c>
+      <c r="D1480">
+        <v>2386.94</v>
+      </c>
+      <c r="E1480">
+        <v>2389.54</v>
+      </c>
+      <c r="F1480">
+        <v>7148.9147</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:6">
+      <c r="A1481" s="2">
+        <v>45540.5</v>
+      </c>
+      <c r="B1481">
+        <v>2389.53</v>
+      </c>
+      <c r="C1481">
+        <v>2399</v>
+      </c>
+      <c r="D1481">
+        <v>2377.01</v>
+      </c>
+      <c r="E1481">
+        <v>2390.36</v>
+      </c>
+      <c r="F1481">
+        <v>14850.7025</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:6">
+      <c r="A1482" s="2">
+        <v>45540.54166666666</v>
+      </c>
+      <c r="B1482">
+        <v>2390.36</v>
+      </c>
+      <c r="C1482">
+        <v>2414.58</v>
+      </c>
+      <c r="D1482">
+        <v>2385.75</v>
+      </c>
+      <c r="E1482">
+        <v>2402.32</v>
+      </c>
+      <c r="F1482">
+        <v>13836.7942</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:6">
+      <c r="A1483" s="2">
+        <v>45540.58333333334</v>
+      </c>
+      <c r="B1483">
+        <v>2402.33</v>
+      </c>
+      <c r="C1483">
+        <v>2415.15</v>
+      </c>
+      <c r="D1483">
+        <v>2363.68</v>
+      </c>
+      <c r="E1483">
+        <v>2377.21</v>
+      </c>
+      <c r="F1483">
+        <v>29061.2279</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:6">
+      <c r="A1484" s="2">
+        <v>45540.625</v>
+      </c>
+      <c r="B1484">
+        <v>2377.2</v>
+      </c>
+      <c r="C1484">
+        <v>2385.45</v>
+      </c>
+      <c r="D1484">
+        <v>2355.8</v>
+      </c>
+      <c r="E1484">
+        <v>2371.43</v>
+      </c>
+      <c r="F1484">
+        <v>27697.3136</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:6">
+      <c r="A1485" s="2">
+        <v>45540.66666666666</v>
+      </c>
+      <c r="B1485">
+        <v>2371.43</v>
+      </c>
+      <c r="C1485">
+        <v>2378.63</v>
+      </c>
+      <c r="D1485">
+        <v>2367.34</v>
+      </c>
+      <c r="E1485">
+        <v>2375.2</v>
+      </c>
+      <c r="F1485">
+        <v>9441.607900000001</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:6">
+      <c r="A1486" s="2">
+        <v>45540.70833333334</v>
+      </c>
+      <c r="B1486">
+        <v>2375.2</v>
+      </c>
+      <c r="C1486">
+        <v>2393.8</v>
+      </c>
+      <c r="D1486">
+        <v>2371.61</v>
+      </c>
+      <c r="E1486">
+        <v>2393.8</v>
+      </c>
+      <c r="F1486">
+        <v>9905.6811</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:6">
+      <c r="A1487" s="2">
+        <v>45540.75</v>
+      </c>
+      <c r="B1487">
+        <v>2393.8</v>
+      </c>
+      <c r="C1487">
+        <v>2395.99</v>
+      </c>
+      <c r="D1487">
+        <v>2387.28</v>
+      </c>
+      <c r="E1487">
+        <v>2389.55</v>
+      </c>
+      <c r="F1487">
+        <v>5085.1082</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:6">
+      <c r="A1488" s="2">
+        <v>45540.79166666666</v>
+      </c>
+      <c r="B1488">
+        <v>2389.55</v>
+      </c>
+      <c r="C1488">
+        <v>2390.26</v>
+      </c>
+      <c r="D1488">
+        <v>2348.04</v>
+      </c>
+      <c r="E1488">
+        <v>2363.97</v>
+      </c>
+      <c r="F1488">
+        <v>18757.4001</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:6">
+      <c r="A1489" s="2">
+        <v>45540.83333333334</v>
+      </c>
+      <c r="B1489">
+        <v>2363.97</v>
+      </c>
+      <c r="C1489">
+        <v>2378.33</v>
+      </c>
+      <c r="D1489">
+        <v>2362.61</v>
+      </c>
+      <c r="E1489">
+        <v>2367.79</v>
+      </c>
+      <c r="F1489">
+        <v>7240.5123</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:6">
+      <c r="A1490" s="2">
+        <v>45540.875</v>
+      </c>
+      <c r="B1490">
+        <v>2367.79</v>
+      </c>
+      <c r="C1490">
+        <v>2377.14</v>
+      </c>
+      <c r="D1490">
+        <v>2350</v>
+      </c>
+      <c r="E1490">
+        <v>2371.84</v>
+      </c>
+      <c r="F1490">
+        <v>9671.181399999999</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:6">
+      <c r="A1491" s="2">
+        <v>45540.91666666666</v>
+      </c>
+      <c r="B1491">
+        <v>2371.85</v>
+      </c>
+      <c r="C1491">
+        <v>2375.17</v>
+      </c>
+      <c r="D1491">
+        <v>2355.4</v>
+      </c>
+      <c r="E1491">
+        <v>2371.67</v>
+      </c>
+      <c r="F1491">
+        <v>7264.9087</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:6">
+      <c r="A1492" s="2">
+        <v>45540.95833333334</v>
+      </c>
+      <c r="B1492">
+        <v>2371.67</v>
+      </c>
+      <c r="C1492">
+        <v>2373.17</v>
+      </c>
+      <c r="D1492">
+        <v>2364.1</v>
+      </c>
+      <c r="E1492">
+        <v>2368.81</v>
+      </c>
+      <c r="F1492">
+        <v>3967.8057</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:6">
+      <c r="A1493" s="2">
+        <v>45541</v>
+      </c>
+      <c r="B1493">
+        <v>2368.81</v>
+      </c>
+      <c r="C1493">
+        <v>2376.58</v>
+      </c>
+      <c r="D1493">
+        <v>2357.6</v>
+      </c>
+      <c r="E1493">
+        <v>2372.25</v>
+      </c>
+      <c r="F1493">
+        <v>6778.1226</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:6">
+      <c r="A1494" s="2">
+        <v>45541.04166666666</v>
+      </c>
+      <c r="B1494">
+        <v>2372.23</v>
+      </c>
+      <c r="C1494">
+        <v>2400.48</v>
+      </c>
+      <c r="D1494">
+        <v>2363.91</v>
+      </c>
+      <c r="E1494">
+        <v>2391.42</v>
+      </c>
+      <c r="F1494">
+        <v>10686.2131</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:6">
+      <c r="A1495" s="2">
+        <v>45541.08333333334</v>
+      </c>
+      <c r="B1495">
+        <v>2391.43</v>
+      </c>
+      <c r="C1495">
+        <v>2408.4</v>
+      </c>
+      <c r="D1495">
+        <v>2389.42</v>
+      </c>
+      <c r="E1495">
+        <v>2402.42</v>
+      </c>
+      <c r="F1495">
+        <v>10469.7993</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:6">
+      <c r="A1496" s="2">
+        <v>45541.125</v>
+      </c>
+      <c r="B1496">
+        <v>2402.42</v>
+      </c>
+      <c r="C1496">
+        <v>2402.95</v>
+      </c>
+      <c r="D1496">
+        <v>2391.8</v>
+      </c>
+      <c r="E1496">
+        <v>2392.63</v>
+      </c>
+      <c r="F1496">
+        <v>5046.3849</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:6">
+      <c r="A1497" s="2">
+        <v>45541.16666666666</v>
+      </c>
+      <c r="B1497">
+        <v>2392.63</v>
+      </c>
+      <c r="C1497">
+        <v>2397.35</v>
+      </c>
+      <c r="D1497">
+        <v>2385</v>
+      </c>
+      <c r="E1497">
+        <v>2386.06</v>
+      </c>
+      <c r="F1497">
+        <v>5697.2448</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:6">
+      <c r="A1498" s="2">
+        <v>45541.20833333334</v>
+      </c>
+      <c r="B1498">
+        <v>2386.07</v>
+      </c>
+      <c r="C1498">
+        <v>2389.31</v>
+      </c>
+      <c r="D1498">
+        <v>2375.28</v>
+      </c>
+      <c r="E1498">
+        <v>2384.27</v>
+      </c>
+      <c r="F1498">
+        <v>7244.683</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:6">
+      <c r="A1499" s="2">
+        <v>45541.25</v>
+      </c>
+      <c r="B1499">
+        <v>2384.26</v>
+      </c>
+      <c r="C1499">
+        <v>2386.06</v>
+      </c>
+      <c r="D1499">
+        <v>2373.17</v>
+      </c>
+      <c r="E1499">
+        <v>2379.48</v>
+      </c>
+      <c r="F1499">
+        <v>5773.9954</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:6">
+      <c r="A1500" s="2">
+        <v>45541.29166666666</v>
+      </c>
+      <c r="B1500">
+        <v>2379.48</v>
+      </c>
+      <c r="C1500">
+        <v>2379.83</v>
+      </c>
+      <c r="D1500">
+        <v>2321.21</v>
+      </c>
+      <c r="E1500">
+        <v>2344.45</v>
+      </c>
+      <c r="F1500">
+        <v>38427.8283</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:6">
+      <c r="A1501" s="2">
+        <v>45541.33333333334</v>
+      </c>
+      <c r="B1501">
+        <v>2344.44</v>
+      </c>
+      <c r="C1501">
+        <v>2357.56</v>
+      </c>
+      <c r="D1501">
+        <v>2338.57</v>
+      </c>
+      <c r="E1501">
+        <v>2350.14</v>
+      </c>
+      <c r="F1501">
+        <v>12980.9164</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:6">
+      <c r="A1502" s="2">
+        <v>45541.375</v>
+      </c>
+      <c r="B1502">
+        <v>2350.15</v>
+      </c>
+      <c r="C1502">
+        <v>2359.36</v>
+      </c>
+      <c r="D1502">
+        <v>2345.84</v>
+      </c>
+      <c r="E1502">
+        <v>2358.32</v>
+      </c>
+      <c r="F1502">
+        <v>7823.602</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:6">
+      <c r="A1503" s="2">
+        <v>45541.41666666666</v>
+      </c>
+      <c r="B1503">
+        <v>2358.32</v>
+      </c>
+      <c r="C1503">
+        <v>2377.4</v>
+      </c>
+      <c r="D1503">
+        <v>2356.21</v>
+      </c>
+      <c r="E1503">
+        <v>2367.54</v>
+      </c>
+      <c r="F1503">
+        <v>9248.827799999999</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:6">
+      <c r="A1504" s="2">
+        <v>45541.45833333334</v>
+      </c>
+      <c r="B1504">
+        <v>2367.55</v>
+      </c>
+      <c r="C1504">
+        <v>2379.4</v>
+      </c>
+      <c r="D1504">
+        <v>2365.41</v>
+      </c>
+      <c r="E1504">
+        <v>2372.95</v>
+      </c>
+      <c r="F1504">
+        <v>9859.863799999999</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:6">
+      <c r="A1505" s="2">
+        <v>45541.5</v>
+      </c>
+      <c r="B1505">
+        <v>2372.96</v>
+      </c>
+      <c r="C1505">
+        <v>2379.8</v>
+      </c>
+      <c r="D1505">
+        <v>2366.07</v>
+      </c>
+      <c r="E1505">
+        <v>2379.17</v>
+      </c>
+      <c r="F1505">
+        <v>3131.6925</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:6">
+      <c r="A1506" s="2">
+        <v>45541.54166666666</v>
+      </c>
+      <c r="B1506">
+        <v>2399.76</v>
+      </c>
+      <c r="C1506">
+        <v>2401.28</v>
+      </c>
+      <c r="D1506">
+        <v>2386.6</v>
+      </c>
+      <c r="E1506">
+        <v>2391.47</v>
+      </c>
+      <c r="F1506">
+        <v>9090.7889</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:6">
+      <c r="A1507" s="2">
+        <v>45541.58333333334</v>
+      </c>
+      <c r="B1507">
+        <v>2363.2</v>
+      </c>
+      <c r="C1507">
+        <v>2366.76</v>
+      </c>
+      <c r="D1507">
+        <v>2352.2</v>
+      </c>
+      <c r="E1507">
+        <v>2366.38</v>
+      </c>
+      <c r="F1507">
+        <v>2194.5687</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
